--- a/stock_historical_data/1wk/MARUTI.NS.xlsx
+++ b/stock_historical_data/1wk/MARUTI.NS.xlsx
@@ -61621,7 +61621,9 @@
       <c r="Q1092" t="n">
         <v>0</v>
       </c>
-      <c r="R1092" t="inlineStr"/>
+      <c r="R1092" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MARUTI.NS.xlsx
+++ b/stock_historical_data/1wk/MARUTI.NS.xlsx
@@ -58396,7 +58396,9 @@
       <c r="P1093" t="n">
         <v>2</v>
       </c>
-      <c r="Q1093" t="inlineStr"/>
+      <c r="Q1093" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MARUTI.NS.xlsx
+++ b/stock_historical_data/1wk/MARUTI.NS.xlsx
@@ -61733,7 +61733,9 @@
       <c r="Q1094" t="n">
         <v>0</v>
       </c>
-      <c r="R1094" t="inlineStr"/>
+      <c r="R1094" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MARUTI.NS.xlsx
+++ b/stock_historical_data/1wk/MARUTI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1094"/>
+  <dimension ref="A1:R1096"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -61736,6 +61736,114 @@
       <c r="R1094" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>12845.2001953125</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>12880</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>12083.5</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>12201.5</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>12201.5</v>
+      </c>
+      <c r="G1095" t="n">
+        <v>3373728</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1095" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1095" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1095" t="inlineStr"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>12181</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>12323.849609375</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>12004.150390625</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>12033.849609375</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>12033.849609375</v>
+      </c>
+      <c r="G1096" t="n">
+        <v>3984159</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1096" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1096" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1096" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MARUTI.NS.xlsx
+++ b/stock_historical_data/1wk/MARUTI.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1096"/>
+  <dimension ref="A1:R1106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
         <v>0</v>
@@ -61669,7 +61669,7 @@
         <v>23</v>
       </c>
       <c r="O1093" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1093" t="n">
         <v>2</v>
@@ -61789,7 +61789,9 @@
       <c r="Q1095" t="n">
         <v>0</v>
       </c>
-      <c r="R1095" t="inlineStr"/>
+      <c r="R1095" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1096">
       <c r="A1096" s="2" t="n">
@@ -61843,7 +61845,549 @@
       <c r="Q1096" t="n">
         <v>0</v>
       </c>
-      <c r="R1096" t="inlineStr"/>
+      <c r="R1096" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>12045</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>12260</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>11960</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>12104.0498046875</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>11990.79296875</v>
+      </c>
+      <c r="G1097" t="n">
+        <v>2996249</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1097" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1097" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1097" t="inlineStr"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>12104</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>13300</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>11966</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>12562.5</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>12444.953125</v>
+      </c>
+      <c r="G1098" t="n">
+        <v>5965312</v>
+      </c>
+      <c r="H1098" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1098" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1098" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1098" t="inlineStr"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>12600</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>12798</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>12463</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>12524.2998046875</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>12407.1103515625</v>
+      </c>
+      <c r="G1099" t="n">
+        <v>1788167</v>
+      </c>
+      <c r="H1099" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1099" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1099" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1099" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1099" t="inlineStr"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>12500</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>12743.099609375</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>12360</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>12663.7001953125</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>12545.2060546875</v>
+      </c>
+      <c r="G1100" t="n">
+        <v>1802231</v>
+      </c>
+      <c r="H1100" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1100" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1100" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1100" t="inlineStr"/>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>12709</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>13680</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>12603</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>12726.400390625</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>12607.3193359375</v>
+      </c>
+      <c r="G1101" t="n">
+        <v>5124946</v>
+      </c>
+      <c r="H1101" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1101" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1101" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1101" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1101" t="inlineStr"/>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>12490</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>12554.900390625</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>12027.650390625</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>12224.2001953125</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>12224.2001953125</v>
+      </c>
+      <c r="G1102" t="n">
+        <v>2867282</v>
+      </c>
+      <c r="H1102" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1102" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1102" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1102" t="inlineStr"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>12200</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>12370</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>12100</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>12213.2998046875</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>12213.2998046875</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>1758254</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1103" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1103" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1103" t="inlineStr"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>12195</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>12375.0498046875</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>12126.7998046875</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>12302.2998046875</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>12302.2998046875</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>1987355</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1104" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1104" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1104" t="inlineStr"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>12325</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>12570</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>12222</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>12403</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>12403</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>3903418</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1105" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1105" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1105" t="inlineStr"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>12373</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>12525</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>12094.7001953125</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>12186.150390625</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>12186.150390625</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>2841298</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1106" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1106" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MARUTI.NS.xlsx
+++ b/stock_historical_data/1wk/MARUTI.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1106"/>
+  <dimension ref="A1:R1135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -61901,7 +61901,9 @@
       <c r="Q1097" t="n">
         <v>0</v>
       </c>
-      <c r="R1097" t="inlineStr"/>
+      <c r="R1097" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1098">
       <c r="A1098" s="2" t="n">
@@ -61955,7 +61957,9 @@
       <c r="Q1098" t="n">
         <v>0</v>
       </c>
-      <c r="R1098" t="inlineStr"/>
+      <c r="R1098" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1099">
       <c r="A1099" s="2" t="n">
@@ -62009,7 +62013,9 @@
       <c r="Q1099" t="n">
         <v>1</v>
       </c>
-      <c r="R1099" t="inlineStr"/>
+      <c r="R1099" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1100">
       <c r="A1100" s="2" t="n">
@@ -62063,7 +62069,9 @@
       <c r="Q1100" t="n">
         <v>0</v>
       </c>
-      <c r="R1100" t="inlineStr"/>
+      <c r="R1100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1101">
       <c r="A1101" s="2" t="n">
@@ -62117,7 +62125,9 @@
       <c r="Q1101" t="n">
         <v>0</v>
       </c>
-      <c r="R1101" t="inlineStr"/>
+      <c r="R1101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1102">
       <c r="A1102" s="2" t="n">
@@ -62171,7 +62181,9 @@
       <c r="Q1102" t="n">
         <v>0</v>
       </c>
-      <c r="R1102" t="inlineStr"/>
+      <c r="R1102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1103">
       <c r="A1103" s="2" t="n">
@@ -62225,7 +62237,9 @@
       <c r="Q1103" t="n">
         <v>0</v>
       </c>
-      <c r="R1103" t="inlineStr"/>
+      <c r="R1103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1104">
       <c r="A1104" s="2" t="n">
@@ -62279,7 +62293,9 @@
       <c r="Q1104" t="n">
         <v>0</v>
       </c>
-      <c r="R1104" t="inlineStr"/>
+      <c r="R1104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1105">
       <c r="A1105" s="2" t="n">
@@ -62333,7 +62349,9 @@
       <c r="Q1105" t="n">
         <v>0</v>
       </c>
-      <c r="R1105" t="inlineStr"/>
+      <c r="R1105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1106">
       <c r="A1106" s="2" t="n">
@@ -62387,7 +62405,1517 @@
       <c r="Q1106" t="n">
         <v>0</v>
       </c>
-      <c r="R1106" t="inlineStr"/>
+      <c r="R1106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>12197.5</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>12427</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>12098</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>12316.0498046875</v>
+      </c>
+      <c r="F1107" t="inlineStr"/>
+      <c r="G1107" t="n">
+        <v>1959634</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1107" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1107" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1107" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1107" t="inlineStr"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>12321.9501953125</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>12705.150390625</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>12151.650390625</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>12614.5</v>
+      </c>
+      <c r="F1108" t="inlineStr"/>
+      <c r="G1108" t="n">
+        <v>2261819</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1108" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1108" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1108" t="inlineStr"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>12625</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>13541.650390625</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>12583.099609375</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>13495.599609375</v>
+      </c>
+      <c r="F1109" t="inlineStr"/>
+      <c r="G1109" t="n">
+        <v>3339441</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1109" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1109" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1109" t="inlineStr"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>13343.5498046875</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>13500</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>12512.5</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>12605.75</v>
+      </c>
+      <c r="F1110" t="inlineStr"/>
+      <c r="G1110" t="n">
+        <v>2347513</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1110" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1110" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1110" t="inlineStr"/>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>12626.0498046875</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>12980</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>12378</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>12776.650390625</v>
+      </c>
+      <c r="F1111" t="inlineStr"/>
+      <c r="G1111" t="n">
+        <v>2084732</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1111" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1111" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1111" t="inlineStr"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>12775</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>12799</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>11844.4501953125</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>12105.099609375</v>
+      </c>
+      <c r="F1112" t="inlineStr"/>
+      <c r="G1112" t="n">
+        <v>2821148</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1112" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1112" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1112" t="inlineStr"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>12145.5498046875</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>12289.7998046875</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>11440</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>11502.849609375</v>
+      </c>
+      <c r="F1113" t="inlineStr"/>
+      <c r="G1113" t="n">
+        <v>2869891</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1113" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1113" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1113" t="inlineStr"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>11504.7998046875</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>11632.650390625</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>10742.4501953125</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>11110</v>
+      </c>
+      <c r="F1114" t="inlineStr"/>
+      <c r="G1114" t="n">
+        <v>5459360</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1114" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1114" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1114" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1114" t="inlineStr"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>11295</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>11430</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>10860</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>11303</v>
+      </c>
+      <c r="F1115" t="inlineStr"/>
+      <c r="G1115" t="n">
+        <v>1981835</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1115" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1115" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1115" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1115" t="inlineStr"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>11331.5</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>11518.150390625</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>10864.2998046875</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>11006.0498046875</v>
+      </c>
+      <c r="F1116" t="inlineStr"/>
+      <c r="G1116" t="n">
+        <v>1939486</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1116" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1116" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1116" t="inlineStr"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>10950</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>11195.25</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>10770</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>11063.599609375</v>
+      </c>
+      <c r="F1117" t="inlineStr"/>
+      <c r="G1117" t="n">
+        <v>2231386</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1117" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1117" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1117" t="inlineStr"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>11202</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>11247.9501953125</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>10870</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>11074.2001953125</v>
+      </c>
+      <c r="F1118" t="inlineStr"/>
+      <c r="G1118" t="n">
+        <v>2331520</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1118" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1118" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1118" t="inlineStr"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>11151</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>11375.9501953125</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>11031</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>11317.9501953125</v>
+      </c>
+      <c r="F1119" t="inlineStr"/>
+      <c r="G1119" t="n">
+        <v>2222913</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1119" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1119" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1119" t="inlineStr"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>11322</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>11368.900390625</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>11033.599609375</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>11272.5498046875</v>
+      </c>
+      <c r="F1120" t="inlineStr"/>
+      <c r="G1120" t="n">
+        <v>1551778</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1120" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1120" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1120" t="inlineStr"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>11255.5498046875</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>11329.4501953125</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>10852.4501953125</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>10901.0498046875</v>
+      </c>
+      <c r="F1121" t="inlineStr"/>
+      <c r="G1121" t="n">
+        <v>1855905</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1121" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1121" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>10928</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>11133</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>10725</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>10941.0498046875</v>
+      </c>
+      <c r="F1122" t="inlineStr"/>
+      <c r="G1122" t="n">
+        <v>996098</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1122" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1122" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1122" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1122" t="inlineStr"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>10941.0498046875</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>12049.7998046875</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>10750.099609375</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>11934.25</v>
+      </c>
+      <c r="F1123" t="inlineStr"/>
+      <c r="G1123" t="n">
+        <v>3036037</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1123" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1123" t="inlineStr"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>11929</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>11979.900390625</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>11570</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>11631.099609375</v>
+      </c>
+      <c r="F1124" t="inlineStr"/>
+      <c r="G1124" t="n">
+        <v>1479131</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1124" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1124" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1124" t="inlineStr"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>11468.5</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>12192.400390625</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>11468</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>12136.349609375</v>
+      </c>
+      <c r="F1125" t="inlineStr"/>
+      <c r="G1125" t="n">
+        <v>2410390</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1125" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1125" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>12147.0498046875</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>12147.0498046875</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>11862.0498046875</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>11967.900390625</v>
+      </c>
+      <c r="F1126" t="inlineStr"/>
+      <c r="G1126" t="n">
+        <v>1739578</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1126" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>11901.900390625</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>13150</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>11811.0498046875</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>12916.5</v>
+      </c>
+      <c r="F1127" t="inlineStr"/>
+      <c r="G1127" t="n">
+        <v>3831404</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1127" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1127" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1127" t="inlineStr"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>12990</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>13461.2001953125</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>12921.650390625</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>13049.5</v>
+      </c>
+      <c r="F1128" t="inlineStr"/>
+      <c r="G1128" t="n">
+        <v>2497866</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1128" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1128" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1128" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1128" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1128" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1128" t="inlineStr"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>13050</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>13060</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>12584.099609375</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>12680.25</v>
+      </c>
+      <c r="F1129" t="inlineStr"/>
+      <c r="G1129" t="n">
+        <v>1494268</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1129" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1129" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1129" t="inlineStr"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>12601.599609375</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>12884.9501953125</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>12245</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>12323.4501953125</v>
+      </c>
+      <c r="F1130" t="inlineStr"/>
+      <c r="G1130" t="n">
+        <v>1649592</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1130" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>12248.349609375</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>12550</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>11811.7001953125</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>11945.849609375</v>
+      </c>
+      <c r="F1131" t="inlineStr"/>
+      <c r="G1131" t="n">
+        <v>1604880</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1131" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1131" t="inlineStr"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>11886</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>12059.4501953125</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>11480</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>11664.150390625</v>
+      </c>
+      <c r="F1132" t="inlineStr"/>
+      <c r="G1132" t="n">
+        <v>1366704</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1132" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1132" t="inlineStr"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>11600</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>11723.9501953125</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>11489.75</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>11513.7998046875</v>
+      </c>
+      <c r="F1133" t="inlineStr"/>
+      <c r="G1133" t="n">
+        <v>909813</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1133" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1133" t="inlineStr"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>11513.7998046875</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>11921.7001953125</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>11456.349609375</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>11732.7998046875</v>
+      </c>
+      <c r="F1134" t="inlineStr"/>
+      <c r="G1134" t="n">
+        <v>1692110</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1134" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1134" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1134" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1134" t="inlineStr"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>11779.9501953125</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>12075.25</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>11400.099609375</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>11522.150390625</v>
+      </c>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="n">
+        <v>2539415</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1135" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1135" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
